--- a/biology/Botanique/Kali_australis/Kali_australis.xlsx
+++ b/biology/Botanique/Kali_australis/Kali_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Soude de Ruthénie[2],[3] (Kali australis)[3] est une plante de la famille des amaranthacées ou des chénopodiacées selon la classification classique de Cronquist (1981)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Soude de Ruthénie, (Kali australis) est une plante de la famille des amaranthacées ou des chénopodiacées selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salsola australis R.Br., 1810
 Salsola pestifer A.Nelson, 1909
@@ -544,9 +558,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est appelée communément « soude roulante »[5] et également « boule du désert », « herbe roulante de Russie »[5] et « chardon de Russie »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est appelée communément « soude roulante » et également « boule du désert », « herbe roulante de Russie » et « chardon de Russie ».
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait partie de la famille des amaranthacées.
 </t>
@@ -606,7 +624,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle qui se reproduit seulement par germination (graines). Très touffue, buissonnante, épineuse, de 5 à 120 cm de hauteur et de diamètre souvent supérieur à la hauteur.
 </t>
@@ -637,7 +657,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans le sud-est de la France. Au Canada, on la trouve principalement en Ontario.
 </t>
